--- a/excel-output/REPORT-MSC-20210929.xlsx
+++ b/excel-output/REPORT-MSC-20210929.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10709" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10711" uniqueCount="708">
   <si>
     <t>Container No</t>
   </si>
@@ -2113,7 +2113,7 @@
     <t>PRINCIPAL: MSC</t>
   </si>
   <si>
-    <t>2021-09-29 14:14:48</t>
+    <t>2021-09-29 14:40:12</t>
   </si>
   <si>
     <t>TYPE CNTR</t>
@@ -2180,6 +2180,12 @@
   </si>
   <si>
     <t>RH</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>82%</t>
   </si>
   <si>
     <t>DAILY CONTAINER STOCK AND MOVEMENT REPORT</t>
@@ -2318,7 +2324,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf/>
     <dxf>
       <border>
@@ -2337,9 +2343,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -48914,7 +48917,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -50014,7 +50017,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -50127,7 +50130,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B17" s="10">
         <v>0</v>
@@ -50192,44 +50195,44 @@
     </row>
     <row r="19" spans="1:37">
       <c r="AC19" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="AC20" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="10">
-        <v>0.1787</v>
+      <c r="AE20" s="8" t="s">
+        <v>697</v>
       </c>
       <c r="AF20" s="8">
         <v>268</v>
       </c>
       <c r="AG20" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:37">
       <c r="AC21" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="10">
-        <v>0.8213</v>
+      <c r="AE21" s="8" t="s">
+        <v>698</v>
       </c>
       <c r="AF21" s="8">
         <v>1232</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -50237,7 +50240,7 @@
         <v>267</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -50286,32 +50289,22 @@
     <mergeCell ref="AI17:AK17"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AK4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="3">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:AK17">
-    <cfRule type="notContainsErrors" dxfId="1" priority="4">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(A5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AE21">
-    <cfRule type="notContainsErrors" dxfId="1" priority="5">
+    <cfRule type="notContainsErrors" dxfId="1" priority="3">
       <formula>NOT(ISERROR(AC19))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="notContainsErrors" dxfId="2" priority="2">
-      <formula>NOT(ISERROR(AE20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="notContainsErrors" dxfId="2" priority="1">
-      <formula>NOT(ISERROR(AE21))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF20:AF22">
-    <cfRule type="notContainsErrors" dxfId="1" priority="6">
+    <cfRule type="notContainsErrors" dxfId="1" priority="4">
       <formula>NOT(ISERROR(AF20))</formula>
     </cfRule>
   </conditionalFormatting>
